--- a/biology/Botanique/SITEVI/SITEVI.xlsx
+++ b/biology/Botanique/SITEVI/SITEVI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le SITEVI ou Salon international des équipements et savoir-faire pour les productions vigne-vin, olive, fruits-legumes est une foire-exposition bi-annuelle organisée à Montpellier au parc des expositions, dans la dernière semaine du mois de novembre. Elle présente le matériel viti-vinicole et les innovations, associé au matériel oléicole et agricole.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le salon est créé en 1977[2].
-Le salon enregistre environ 50 000 visites en 2015, pour 1000 exposants. En 2017 le nombre passe à 1100 exposants, pour 57 000 visiteurs[3], il devient le plus grand salon spécialisé sur ces équipements au monde[4].
-En 2018, il est envisagé qu’il se déroule aussi à Mendoza en Argentine, et en Chine sous le nom de SITEVINITECH[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le salon est créé en 1977.
+Le salon enregistre environ 50 000 visites en 2015, pour 1000 exposants. En 2017 le nombre passe à 1100 exposants, pour 57 000 visiteurs, il devient le plus grand salon spécialisé sur ces équipements au monde.
+En 2018, il est envisagé qu’il se déroule aussi à Mendoza en Argentine, et en Chine sous le nom de SITEVINITECH.
 </t>
         </is>
       </c>
@@ -545,51 +559,159 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le SITEVI s'organise en plusieurs zones réparties par thèmes dans les différents bâtiments (il y a onze halls d'exposition disponibles) du parc des expositions de Montpellier[6].
-Des salles de conférence sont aussi mobilisées pendant les 3 jours et traitent des problématiques actuelles, une quarantaine d'interventions sont ainsi proposées[7] (18 ateliers interactifs, 26 conférences).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SITEVI s'organise en plusieurs zones réparties par thèmes dans les différents bâtiments (il y a onze halls d'exposition disponibles) du parc des expositions de Montpellier.
+Des salles de conférence sont aussi mobilisées pendant les 3 jours et traitent des problématiques actuelles, une quarantaine d'interventions sont ainsi proposées (18 ateliers interactifs, 26 conférences).
 Un espace pour l'emploi est réservé (Job dating).
-Répartition thématique
-Les stands des exposants sont classés en trois univers :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SITEVI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SITEVI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition thématique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stands des exposants sont classés en trois univers :
 La filière viticole-vinicole (majoritaire)
 La filière oléicole
 La filière agricole : fruits et légumes
 Les exposants sont organisés par type de matériel (cuves, pressoirs, machines à vendanger, tracteurs, pulvérisateurs, travail du sol, …) 
-Concours de l'innovation
-Festival International Œnovideo
-Oenovideo a changé de place depuis sa création. En 2018 le 25ème anniversaire du festival a été célébré à l'invitation du Comité Champagne et de la ville d'Epernay[8].
-Organisateurs
-La gestion du salon est confiée à Comexposium, l'un des leaders européens de l'organisation de salons[9]. Filiale de la Chambre de commerce et d'industrie de Paris et du groupe Unibail-Rodamco, Comexposium organise 114 manifestations grand public et professionnelles[9] par an dont cinq des dix plus gros salons français[9],[10],[11].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>SITEVI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/SITEVI</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Festival International Œnovideo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oenovideo a changé de place depuis sa création. En 2018 le 25ème anniversaire du festival a été célébré à l'invitation du Comité Champagne et de la ville d'Epernay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SITEVI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SITEVI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Organisateurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gestion du salon est confiée à Comexposium, l'un des leaders européens de l'organisation de salons. Filiale de la Chambre de commerce et d'industrie de Paris et du groupe Unibail-Rodamco, Comexposium organise 114 manifestations grand public et professionnelles par an dont cinq des dix plus gros salons français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SITEVI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SITEVI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspects économiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
